--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Prasanna</t>
+  </si>
+  <si>
+    <t>Kumar</t>
   </si>
 </sst>
 </file>
@@ -357,17 +360,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Prasanna</t>
   </si>
   <si>
     <t>Kumar</t>
+  </si>
+  <si>
+    <t>PP</t>
   </si>
 </sst>
 </file>
@@ -360,20 +363,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Prasanna</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>Cherry</t>
   </si>
 </sst>
 </file>
@@ -363,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,6 +383,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Prasanna</t>
-  </si>
-  <si>
     <t>Kumar</t>
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>Cherry</t>
   </si>
 </sst>
 </file>
@@ -366,20 +366,20 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Kumar</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Cherry</t>
+  </si>
+  <si>
+    <t>Shilpa</t>
   </si>
 </sst>
 </file>
@@ -363,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -380,6 +383,9 @@
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
